--- a/service-compare-data/Data.xlsx
+++ b/service-compare-data/Data.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvinson\Documents\GitHub\StupidTodo\service-compare-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAB181-1F3C-4C81-B743-AEDA5EFCC183}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D81556-5075-40A6-9540-6D8D2D7A959A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="1140" windowWidth="21600" windowHeight="11208" xr2:uid="{88F3D2B2-D218-436A-B106-F9482C8178E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88F3D2B2-D218-436A-B106-F9482C8178E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GetChart" sheetId="2" r:id="rId1"/>
+    <sheet name="SendChart" sheetId="4" r:id="rId2"/>
+    <sheet name="FirstChart" sheetId="5" r:id="rId3"/>
+    <sheet name="SendOneChart" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Get</t>
   </si>
@@ -57,12 +61,6 @@
     <t>Todos Count</t>
   </si>
   <si>
-    <t>Web Api (4.8)</t>
-  </si>
-  <si>
-    <t>WCF (4.8)</t>
-  </si>
-  <si>
     <t>Web API (Core 3.1)</t>
   </si>
   <si>
@@ -70,6 +68,24 @@
   </si>
   <si>
     <t>gRPC Streaming</t>
+  </si>
+  <si>
+    <t>Getx10</t>
+  </si>
+  <si>
+    <t>Sendx10</t>
+  </si>
+  <si>
+    <t>Firstx10</t>
+  </si>
+  <si>
+    <t>SendOnex10</t>
+  </si>
+  <si>
+    <t>WCF (Framework 4.8)</t>
+  </si>
+  <si>
+    <t>Web Api (Framework 4.8)</t>
   </si>
 </sst>
 </file>
@@ -125,6 +141,2422 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Get Times (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$6:$C$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.73</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.34</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.58</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$6:$C$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.73</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.34</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.58</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gRPC Streaming</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$B$6,Sheet1!$B$7,Sheet1!$B$8,Sheet1!$B$9,Sheet1!$B$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2949-4647-B5DD-215B07BD6597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Clients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$E$6:$E$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>18.7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>38.4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>27.6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$E$6:$E$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>18.7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>38.4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43.2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>27.6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gRPC Streaming</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$6,Sheet1!$D$7,Sheet1!$D$8,Sheet1!$D$9,Sheet1!$D$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2949-4647-B5DD-215B07BD6597}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="609825487"/>
+        <c:axId val="555731471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="609825487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555731471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555731471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609825487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Send Times (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$G$6,Sheet1!$G$7,Sheet1!$G$9,Sheet1!$G$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.33</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.77</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.62</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$G$6,Sheet1!$G$7,Sheet1!$G$9,Sheet1!$G$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>3.33</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.77</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.62</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$6,Sheet1!$F$7,Sheet1!$F$9,Sheet1!$F$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA5D-46A8-AD84-9EC516F917D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Clients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$I$6,Sheet1!$I$7,Sheet1!$I$9,Sheet1!$I$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>35.4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>33.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$I$6,Sheet1!$I$7,Sheet1!$I$9,Sheet1!$I$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>11.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>43.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>35.4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>33.4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$6,Sheet1!$H$7,Sheet1!$H$9,Sheet1!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA5D-46A8-AD84-9EC516F917D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="425664079"/>
+        <c:axId val="555710255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="425664079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555710255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="555710255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425664079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>First Times (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$K$6,Sheet1!$K$7,Sheet1!$K$9,Sheet1!$K$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.22</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.99</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$K$6,Sheet1!$K$7,Sheet1!$K$9,Sheet1!$K$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.22</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.26</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.99</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$6,Sheet1!$J$7,Sheet1!$J$9,Sheet1!$J$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E88-4CA1-9F74-FA7B84143893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Clients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$M$6,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>13.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.65</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0500000000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.100000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$M$6,Sheet1!$M$7,Sheet1!$M$9,Sheet1!$M$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>13.2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.65</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.0500000000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.100000000000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$L$6,Sheet1!$L$7,Sheet1!$L$9,Sheet1!$L$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E88-4CA1-9F74-FA7B84143893}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="651269951"/>
+        <c:axId val="623189839"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="651269951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623189839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623189839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="651269951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SendOne Times (ms)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Client</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$O$6,Sheet1!$O$7,Sheet1!$O$9,Sheet1!$O$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.72</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.78</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0599999999999996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$O$6,Sheet1!$O$7,Sheet1!$O$9,Sheet1!$O$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.72</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.78</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0599999999999996</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$N$6,Sheet1!$N$7,Sheet1!$N$9,Sheet1!$N$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B2C-4A7D-AFE5-6EC1C0A3CCC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10 Clients</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet1!$Q$6,Sheet1!$Q$7,Sheet1!$Q$9,Sheet1!$Q$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.33</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.92</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet1!$Q$6,Sheet1!$Q$7,Sheet1!$Q$9,Sheet1!$Q$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.33</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.92</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.6</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$P$6,Sheet1!$P$7,Sheet1!$P$9,Sheet1!$P$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B2C-4A7D-AFE5-6EC1C0A3CCC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="626080479"/>
+        <c:axId val="623195663"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="626080479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623195663"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623195663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626080479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -228,10 +2660,10 @@
                   <c:v>gRPC Streaming</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Web Api (4.8)</c:v>
+                  <c:v>Web Api (Framework 4.8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>WCF (4.8)</c:v>
+                  <c:v>WCF (Framework 4.8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -243,19 +2675,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>53.4</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.1</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.1</c:v>
+                  <c:v>77.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.3</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.69999999999999</c:v>
+                  <c:v>87.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -438,321 +2870,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Send</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$8,Sheet1!$A$9,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Web API (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gRPC (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gRPC Streaming</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web Api (4.8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>WCF (4.8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$6,Sheet1!$D$7,Sheet1!$D$8,Sheet1!$D$9,Sheet1!$D$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>57.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>139.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>139.19999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F0B-46BD-B119-7687E530C249}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1157852671"/>
-        <c:axId val="1025883647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1157852671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1025883647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1025883647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1157852671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -853,31 +2971,31 @@
                   <c:v>gRPC (Core 3.1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Web Api (4.8)</c:v>
+                  <c:v>Web Api (Framework 4.8)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>WCF (4.8)</c:v>
+                  <c:v>WCF (Framework 4.8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$6,Sheet1!$F$7,Sheet1!$F$9,Sheet1!$F$10)</c:f>
+              <c:f>(Sheet1!$J$6,Sheet1!$J$7,Sheet1!$J$9,Sheet1!$J$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.17</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.02</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.67</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +3178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1161,31 +3279,31 @@
                   <c:v>gRPC (Core 3.1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Web Api (4.8)</c:v>
+                  <c:v>Web Api (Framework 4.8)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>WCF (4.8)</c:v>
+                  <c:v>WCF (Framework 4.8)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$6,Sheet1!$H$7,Sheet1!$H$9,Sheet1!$H$10)</c:f>
+              <c:f>(Sheet1!$N$6,Sheet1!$N$7,Sheet1!$N$9,Sheet1!$N$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.32</c:v>
+                  <c:v>7.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.3</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.66</c:v>
+                  <c:v>5.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,6 +3431,314 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1683243295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Send</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Web API (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gRPC (Core 3.1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Web Api (Framework 4.8)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>WCF (Framework 4.8)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$6,Sheet1!$F$7,Sheet1!$F$9,Sheet1!$F$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEB2-41C0-A51E-BE8D7DE34035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="544618015"/>
+        <c:axId val="543245439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="544618015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543245439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543245439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544618015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,7 +3954,2151 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2031,7 +6601,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2534,7 +7104,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3037,7 +7607,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3540,20 +8110,196 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{768BB3DA-09A5-443B-B80C-D1A37A3B6DA0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{506F3C1E-2D84-473D-9FC7-1F79AA6C7F61}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{616AA3DE-0333-466A-955A-ABE1F5F27ADF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7E75149C-8DD5-444E-8BE1-A29C1C87BE8F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439E9095-6912-4096-A5A8-7244B1C29E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49606E0B-135A-4398-B763-05EDE9E7BBA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4BC3F3-3F10-4B66-BD3A-86FD851E136A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFC6273-DB2E-491C-99FB-F8B1313B1586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3580,23 +8326,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11C6187-ADB3-4942-A637-7D0C1D22013A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B50240-8A2F-45B0-A37A-2A87A3911CCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3616,23 +8362,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B50240-8A2F-45B0-A37A-2A87A3911CCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4FBB7D-2A29-4F92-ADA0-486DE8B1192B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3652,23 +8398,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4FBB7D-2A29-4F92-ADA0-486DE8B1192B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ED3A1C-9D49-4D0F-A2B6-C8F23D43CF31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,18 +8732,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC1152-EA9A-43A3-9695-9B9EB129F172}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" activeCellId="11" sqref="A6 A7 A9 A10 N6 N7 N9 N10 P6 P7 P9 P10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +8753,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4013,7 +8761,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4024,155 +8772,275 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>2.73</v>
+      </c>
+      <c r="D6">
+        <v>94.6</v>
+      </c>
+      <c r="E6">
+        <v>18.7</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>3.33</v>
+      </c>
+      <c r="H6">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I6">
+        <v>11.2</v>
+      </c>
+      <c r="J6">
+        <v>1.05</v>
+      </c>
+      <c r="K6">
+        <v>0.22</v>
+      </c>
+      <c r="L6">
+        <v>22.9</v>
+      </c>
+      <c r="M6">
+        <v>13.2</v>
+      </c>
+      <c r="N6">
+        <v>7.11</v>
+      </c>
+      <c r="O6">
+        <v>0.72</v>
+      </c>
+      <c r="P6">
+        <v>15.8</v>
+      </c>
+      <c r="Q6">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>23.6</v>
+      </c>
+      <c r="C7">
+        <v>2.34</v>
+      </c>
+      <c r="D7">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>38.4</v>
+      </c>
+      <c r="F7">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G7">
+        <v>5.58</v>
+      </c>
+      <c r="H7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="I7">
+        <v>43.2</v>
+      </c>
+      <c r="J7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.27</v>
+      </c>
+      <c r="L7">
+        <v>2.8</v>
+      </c>
+      <c r="M7">
+        <v>3.65</v>
+      </c>
+      <c r="N7">
+        <v>0.97</v>
+      </c>
+      <c r="O7">
+        <v>0.31</v>
+      </c>
+      <c r="P7">
+        <v>3.03</v>
+      </c>
+      <c r="Q7">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>53.4</v>
-      </c>
-      <c r="C6">
-        <v>3.06</v>
-      </c>
-      <c r="D6">
-        <v>57.3</v>
-      </c>
-      <c r="E6">
-        <v>2.82</v>
-      </c>
-      <c r="F6">
-        <v>1.17</v>
-      </c>
-      <c r="G6">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="H6">
-        <v>7.32</v>
-      </c>
-      <c r="I6">
-        <v>0.81</v>
+      <c r="B8">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C8">
+        <v>5.58</v>
+      </c>
+      <c r="D8">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E8">
+        <v>43.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>83.1</v>
-      </c>
-      <c r="C7">
-        <v>5.6</v>
-      </c>
-      <c r="D7">
-        <v>386</v>
-      </c>
-      <c r="E7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F7">
-        <v>1.02</v>
-      </c>
-      <c r="G7">
-        <v>0.37</v>
-      </c>
-      <c r="H7">
-        <v>0.91</v>
-      </c>
-      <c r="I7">
-        <v>0.27</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="D9">
+        <v>120</v>
+      </c>
+      <c r="E9">
+        <v>14.5</v>
+      </c>
+      <c r="F9">
+        <v>103</v>
+      </c>
+      <c r="G9">
+        <v>5.77</v>
+      </c>
+      <c r="H9">
+        <v>280</v>
+      </c>
+      <c r="I9">
+        <v>35.4</v>
+      </c>
+      <c r="J9">
+        <v>1.61</v>
+      </c>
+      <c r="K9">
+        <v>0.26</v>
+      </c>
+      <c r="L9">
+        <v>7.15</v>
+      </c>
+      <c r="M9">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="N9">
+        <v>8.02</v>
+      </c>
+      <c r="O9">
+        <v>0.78</v>
+      </c>
+      <c r="P9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>7.92</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>59.1</v>
-      </c>
-      <c r="C8">
-        <v>5.6</v>
-      </c>
-      <c r="D8">
-        <v>361</v>
-      </c>
-      <c r="E8">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>112.3</v>
-      </c>
-      <c r="C9">
-        <v>9.01</v>
-      </c>
-      <c r="D9">
-        <v>139.80000000000001</v>
-      </c>
-      <c r="E9">
-        <v>14.9</v>
-      </c>
-      <c r="F9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="H9">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>87.4</v>
+      </c>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10">
+        <v>174</v>
+      </c>
+      <c r="E10">
+        <v>27.6</v>
+      </c>
+      <c r="F10">
+        <v>85.3</v>
+      </c>
+      <c r="G10">
+        <v>7.62</v>
+      </c>
+      <c r="H10">
+        <v>211</v>
+      </c>
+      <c r="I10">
+        <v>33.4</v>
+      </c>
+      <c r="J10">
+        <v>3.47</v>
+      </c>
+      <c r="K10">
+        <v>2.99</v>
+      </c>
+      <c r="L10">
+        <v>14.2</v>
+      </c>
+      <c r="M10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N10">
+        <v>5.15</v>
+      </c>
+      <c r="O10">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="P10">
         <v>10.3</v>
       </c>
-      <c r="I9">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="E10">
-        <v>12.5</v>
-      </c>
-      <c r="F10">
-        <v>4.67</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>6.66</v>
-      </c>
-      <c r="I10">
-        <v>4.5</v>
+      <c r="Q10">
+        <v>12.6</v>
       </c>
     </row>
   </sheetData>

--- a/service-compare-data/Data.xlsx
+++ b/service-compare-data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvinson\Documents\GitHub\StupidTodo\service-compare-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D81556-5075-40A6-9540-6D8D2D7A959A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215A6BE-F3F5-4C3E-8D2B-A9A1724F342A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88F3D2B2-D218-436A-B106-F9482C8178E2}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>gRPC (Core 3.1)</t>
   </si>
   <si>
-    <t>gRPC Streaming</t>
-  </si>
-  <si>
     <t>Getx10</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Web Api (Framework 4.8)</t>
+  </si>
+  <si>
+    <t>gRPC Streaming (Core 3.1)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Get Times (ms)</a:t>
+              <a:t>Get 5000 Todos (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -273,6 +273,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -350,7 +406,7 @@
                   <c:v>gRPC (Core 3.1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gRPC Streaming</c:v>
+                  <c:v>gRPC Streaming (Core 3.1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Web Api (Framework 4.8)</c:v>
@@ -401,21 +457,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -436,6 +492,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -513,7 +625,7 @@
                   <c:v>gRPC (Core 3.1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>gRPC Streaming</c:v>
+                  <c:v>gRPC Streaming (Core 3.1)</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Web Api (Framework 4.8)</c:v>
@@ -555,8 +667,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -804,7 +917,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Send Times (ms)</a:t>
+              <a:t>Send 5000 Todos (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -896,6 +1009,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1012,21 +1181,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1047,6 +1216,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1154,8 +1379,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1400,7 +1626,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>First Times (ms)</a:t>
+              <a:t>Get 1 Todo (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1492,6 +1718,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1608,21 +1890,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1643,6 +1925,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -1750,8 +2088,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1998,7 +2337,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SendOne Times (ms)</a:t>
+              <a:t>Send 1 Todo (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2090,6 +2429,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -2206,21 +2601,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -2241,6 +2636,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -2348,8 +2799,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2556,1252 +3008,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Get</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Web API (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gRPC (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>gRPC Streaming</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Web Api (Framework 4.8)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>WCF (Framework 4.8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6F7-4780-B755-9ED8FF8D7612}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1676375199"/>
-        <c:axId val="1680339871"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1676375199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1680339871"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1680339871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1676375199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>First</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Web API (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gRPC (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Web Api (Framework 4.8)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WCF (Framework 4.8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$J$6,Sheet1!$J$7,Sheet1!$J$9,Sheet1!$J$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DBF-47EC-9672-AF80C1EF98FE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1685388623"/>
-        <c:axId val="1675592079"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1685388623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1675592079"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1675592079"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1685388623"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SendOne</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Web API (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gRPC (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Web Api (Framework 4.8)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WCF (Framework 4.8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$N$6,Sheet1!$N$7,Sheet1!$N$9,Sheet1!$N$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FF8-4BCA-8DE2-E050C0BF6D44}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1683243295"/>
-        <c:axId val="1681214511"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1683243295"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1681214511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1681214511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1683243295"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Send</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$A$6,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Web API (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gRPC (Core 3.1)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Web Api (Framework 4.8)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>WCF (Framework 4.8)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$F$6,Sheet1!$F$7,Sheet1!$F$9,Sheet1!$F$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEB2-41C0-A51E-BE8D7DE34035}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="544618015"/>
-        <c:axId val="543245439"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="544618015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="543245439"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="543245439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="544618015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3835,13 +3046,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3875,13 +3083,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3915,173 +3120,10 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6094,2018 +5136,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8286,155 +5316,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32346959-B120-4462-86F7-C298D1B76B78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B50240-8A2F-45B0-A37A-2A87A3911CCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4FBB7D-2A29-4F92-ADA0-486DE8B1192B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ED3A1C-9D49-4D0F-A2B6-C8F23D43CF31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8735,7 +5616,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" activeCellId="11" sqref="A6 A7 A9 A10 N6 N7 N9 N10 P6 P7 P9 P10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8772,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -8784,7 +5665,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -8796,7 +5677,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -8808,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="s">
         <v>5</v>
@@ -8922,7 +5803,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>77.599999999999994</v>
@@ -8939,7 +5820,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>62</v>
@@ -8992,7 +5873,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>87.4</v>
@@ -9045,6 +5926,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/service-compare-data/Data.xlsx
+++ b/service-compare-data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvinson\Documents\GitHub\StupidTodo\service-compare-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215A6BE-F3F5-4C3E-8D2B-A9A1724F342A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A384B3EF-FF89-4FA9-BE9F-054346730E7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88F3D2B2-D218-436A-B106-F9482C8178E2}"/>
+    <workbookView xWindow="1845" yWindow="765" windowWidth="19665" windowHeight="12600" activeTab="4" xr2:uid="{88F3D2B2-D218-436A-B106-F9482C8178E2}"/>
   </bookViews>
   <sheets>
     <sheet name="GetChart" sheetId="2" r:id="rId1"/>
@@ -340,19 +340,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.73</c:v>
+                    <c:v>3.16</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.34</c:v>
+                    <c:v>1.77</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.58</c:v>
+                    <c:v>5.12</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.6</c:v>
+                    <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.5</c:v>
+                    <c:v>16.399999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -364,19 +364,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.73</c:v>
+                    <c:v>3.16</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.34</c:v>
+                    <c:v>1.77</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.58</c:v>
+                    <c:v>5.12</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.6</c:v>
+                    <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.5</c:v>
+                    <c:v>16.399999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -424,19 +424,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>33.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.6</c:v>
+                  <c:v>21.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.599999999999994</c:v>
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>54.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.4</c:v>
+                  <c:v>72.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,19 +559,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>18.7</c:v>
+                    <c:v>15.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>38.4</c:v>
+                    <c:v>19.100000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43.2</c:v>
+                    <c:v>228</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.5</c:v>
+                    <c:v>22.6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>27.6</c:v>
+                    <c:v>31</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -583,19 +583,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>18.7</c:v>
+                    <c:v>15.7</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>38.4</c:v>
+                    <c:v>19.100000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43.2</c:v>
+                    <c:v>228</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.5</c:v>
+                    <c:v>22.6</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>27.6</c:v>
+                    <c:v>31</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -643,19 +643,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>94.6</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>66.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,6 +873,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1076,16 +1077,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.33</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.58</c:v>
+                    <c:v>2.33</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.77</c:v>
+                    <c:v>16.899999999999999</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.62</c:v>
+                    <c:v>12.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1097,16 +1098,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>3.33</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.58</c:v>
+                    <c:v>2.33</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.77</c:v>
+                    <c:v>16.899999999999999</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.62</c:v>
+                    <c:v>12.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1151,16 +1152,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.599999999999994</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.3</c:v>
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,16 +1284,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>6.24</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.2</c:v>
+                    <c:v>16.399999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>35.4</c:v>
+                    <c:v>30</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>33.4</c:v>
+                    <c:v>23.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1304,16 +1305,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>11.2</c:v>
+                    <c:v>6.24</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>43.2</c:v>
+                    <c:v>16.399999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>35.4</c:v>
+                    <c:v>30</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>33.4</c:v>
+                    <c:v>23.2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1358,16 +1359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>73.400000000000006</c:v>
+                  <c:v>52.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>280</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,6 +1447,8 @@
         <c:axId val="555710255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="275"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1626,7 +1629,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Get 1 Todo (ms)</a:t>
+              <a:t>First Todo (Get</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1785,16 +1796,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.22</c:v>
+                    <c:v>0.28000000000000003</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.27</c:v>
+                    <c:v>0.18</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.26</c:v>
+                    <c:v>0.42</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.99</c:v>
+                    <c:v>2.2000000000000002</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1806,16 +1817,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.22</c:v>
+                    <c:v>0.28000000000000003</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.27</c:v>
+                    <c:v>0.18</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.26</c:v>
+                    <c:v>0.42</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.99</c:v>
+                    <c:v>2.2000000000000002</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1860,16 +1871,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.05</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.61</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.47</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,16 +2003,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>13.2</c:v>
+                    <c:v>1.04</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.65</c:v>
+                    <c:v>2.27</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0500000000000007</c:v>
+                    <c:v>2.4700000000000002</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>16.100000000000001</c:v>
+                    <c:v>3.03</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2013,16 +2024,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>13.2</c:v>
+                    <c:v>1.04</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.65</c:v>
+                    <c:v>2.27</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.0500000000000007</c:v>
+                    <c:v>2.4700000000000002</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>16.100000000000001</c:v>
+                    <c:v>3.03</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2067,16 +2078,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.9</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
+                  <c:v>2.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.15</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.2</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,7 +2166,7 @@
         <c:axId val="623189839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="32"/>
+          <c:max val="6.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2496,16 +2507,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.72</c:v>
+                    <c:v>0.83</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.31</c:v>
+                    <c:v>0.18</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.78</c:v>
+                    <c:v>1.1200000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.0599999999999996</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2517,16 +2528,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.72</c:v>
+                    <c:v>0.83</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.31</c:v>
+                    <c:v>0.18</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.78</c:v>
+                    <c:v>1.1200000000000001</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.0599999999999996</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2571,16 +2582,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.11</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.02</c:v>
+                  <c:v>7.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.15</c:v>
+                  <c:v>4.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,16 +2714,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.08</c:v>
+                    <c:v>4.6399999999999997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.33</c:v>
+                    <c:v>1.94</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.92</c:v>
+                    <c:v>5.09</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12.6</c:v>
+                    <c:v>2.56</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2724,16 +2735,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>8.08</c:v>
+                    <c:v>4.6399999999999997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.33</c:v>
+                    <c:v>1.94</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.92</c:v>
+                    <c:v>5.09</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12.6</c:v>
+                    <c:v>2.56</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2778,16 +2789,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15.8</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.03</c:v>
+                  <c:v>1.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>15.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.3</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,7 +2877,7 @@
         <c:axId val="623195663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25"/>
+          <c:max val="21"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5144,7 +5155,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{768BB3DA-09A5-443B-B80C-D1A37A3B6DA0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5155,7 +5166,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{506F3C1E-2D84-473D-9FC7-1F79AA6C7F61}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5166,7 +5177,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{616AA3DE-0333-466A-955A-ABE1F5F27ADF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5177,7 +5188,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7E75149C-8DD5-444E-8BE1-A29C1C87BE8F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5188,7 +5199,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8680739" cy="6299489"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5218,10 +5229,73 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50249</cdr:x>
+      <cdr:y>0.09966</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60599</cdr:x>
+      <cdr:y>0.1512</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C8EACC-2B16-4CF9-BCED-F58BA4931FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4362018" y="627783"/>
+          <a:ext cx="898380" cy="324716"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>435</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> +/- 228</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8659752" cy="6289408"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5250,11 +5324,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8659752" cy="6289408"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5283,11 +5357,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8659752" cy="6289408"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5615,18 +5689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EC1152-EA9A-43A3-9695-9B9EB129F172}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5708,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5642,7 +5716,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5695,233 +5769,233 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>33.9</v>
       </c>
       <c r="C6">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="D6">
-        <v>94.6</v>
+        <v>80.2</v>
       </c>
       <c r="E6">
-        <v>18.7</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>32.4</v>
       </c>
       <c r="G6">
-        <v>3.33</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>73.400000000000006</v>
+        <v>52.1</v>
       </c>
       <c r="I6">
-        <v>11.2</v>
+        <v>6.24</v>
       </c>
       <c r="J6">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="K6">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L6">
-        <v>22.9</v>
+        <v>1.98</v>
       </c>
       <c r="M6">
-        <v>13.2</v>
+        <v>1.04</v>
       </c>
       <c r="N6">
-        <v>7.11</v>
+        <v>7.1</v>
       </c>
       <c r="O6">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="P6">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="Q6">
-        <v>8.08</v>
+        <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>23.6</v>
+        <v>21.1</v>
       </c>
       <c r="C7">
-        <v>2.34</v>
+        <v>1.77</v>
       </c>
       <c r="D7">
-        <v>83</v>
+        <v>66.2</v>
       </c>
       <c r="E7">
-        <v>38.4</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F7">
-        <v>77.599999999999994</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>5.58</v>
+        <v>2.33</v>
       </c>
       <c r="H7">
-        <v>78.400000000000006</v>
+        <v>78</v>
       </c>
       <c r="I7">
-        <v>43.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="J7">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="K7">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="M7">
-        <v>3.65</v>
+        <v>2.27</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="O7">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="P7">
-        <v>3.03</v>
+        <v>1.84</v>
       </c>
       <c r="Q7">
-        <v>3.33</v>
+        <v>1.94</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>77.599999999999994</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C8">
-        <v>5.58</v>
+        <v>5.12</v>
       </c>
       <c r="D8">
-        <v>78.400000000000006</v>
+        <v>435</v>
       </c>
       <c r="E8">
-        <v>43.2</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>54.6</v>
       </c>
       <c r="C9">
-        <v>2.6</v>
+        <v>3.36</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E9">
-        <v>14.5</v>
+        <v>22.6</v>
       </c>
       <c r="F9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9">
-        <v>5.77</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H9">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="I9">
-        <v>35.4</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="K9">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="L9">
-        <v>7.15</v>
+        <v>2.39</v>
       </c>
       <c r="M9">
-        <v>9.0500000000000007</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="N9">
-        <v>8.02</v>
+        <v>7.91</v>
       </c>
       <c r="O9">
-        <v>0.78</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="P9">
-        <v>16.600000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="Q9">
-        <v>7.92</v>
+        <v>5.09</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>87.4</v>
+        <v>72.3</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D10">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E10">
-        <v>27.6</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>85.3</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="G10">
-        <v>7.62</v>
+        <v>12.2</v>
       </c>
       <c r="H10">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="I10">
-        <v>33.4</v>
+        <v>23.2</v>
       </c>
       <c r="J10">
-        <v>3.47</v>
+        <v>3.06</v>
       </c>
       <c r="K10">
-        <v>2.99</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L10">
-        <v>14.2</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>16.100000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="N10">
-        <v>5.15</v>
+        <v>4.82</v>
       </c>
       <c r="O10">
-        <v>4.0599999999999996</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>10.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q10">
-        <v>12.6</v>
+        <v>2.56</v>
       </c>
     </row>
   </sheetData>
